--- a/data/D_ÓRGANOS DE LÍNEA DEL VICERRECTORADO ACADÉMICO.xlsx
+++ b/data/D_ÓRGANOS DE LÍNEA DEL VICERRECTORADO ACADÉMICO.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3506A3AE-E70A-4DC6-990C-D9FB66EFA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D63649-9FDF-48B9-A25B-6368139ACFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA216D2F-C072-404D-8149-57B5FA71F565}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6C453F3-3A8A-4288-9907-7E0E968555EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="ÓRGANOS DE LÍNEA DEL VICERRECTO" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -228,18 +228,6 @@
     <t>1099-1100-1101</t>
   </si>
   <si>
-    <t>MORALES CHALCO OSMART RAÚL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Jefatura - UNIDAD DE EDUCACIÓN A DISTANCIA</t>
-  </si>
-  <si>
-    <t>ormoralesc@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>oed@unac.edu.pe</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Jefatura - UNIDAD DE BIBLIOTECA CENTRAL, BANCO DE LIBROS Y LIBRERÍA</t>
   </si>
   <si>
@@ -262,6 +250,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Director - DIRECCIÓN DE PROYECCIÓN SOCIAL Y EXTENSIÓN CULTURAL</t>
+  </si>
+  <si>
+    <t>DIPSEC</t>
   </si>
   <si>
     <t>453-1685</t>
@@ -356,7 +347,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -411,35 +402,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -462,12 +433,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -477,10 +457,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -537,71 +528,71 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -629,7 +620,41 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -647,58 +672,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF008ECF"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -766,12 +745,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -846,12 +819,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -886,12 +853,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -926,12 +887,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -969,40 +924,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Montserrat SemiBold"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBDE14"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1019,19 +940,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2D75FC3-0A41-469A-90AD-7C11BA59FA29}" name="Tabla6" displayName="Tabla6" ref="A1:H17" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H17" xr:uid="{BD19C4B6-8284-45EA-9CEF-3A5C12659D4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DD79EBF-68C9-4AF2-8A04-4CB607F191B2}" name="Tabla1" displayName="Tabla1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:H16" xr:uid="{1DD79EBF-68C9-4AF2-8A04-4CB607F191B2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E900C2A9-CFAF-4A7B-81DB-1B362104FFD3}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{75172E99-2724-4169-976C-A8D8F592E529}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5914AB60-DBFB-4BE1-957A-FB8665FD874F}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A444387C-3F49-440C-A286-1683B0D6ED76}" name="RESOL." dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{BE5CC7C1-7B8E-4A27-A69D-E4190EC1D55E}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{819B8714-351E-4D2E-9EBD-297D174B0FB7}" name="CORREO INSTITUCIONAL" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="7" xr3:uid="{4ADFDF2F-6F17-4EF8-97E5-1468604FA3A5}" name="CORREOS GENERAL" dataDxfId="1" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="8" xr3:uid="{F8A6E766-79DD-40B2-B0DD-3D44300CED22}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EEA67DCD-F5C9-4AC0-B8D3-EDD04A682626}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F61A4290-3618-44C4-BBD2-2FC2C21AC205}" name="CARGO" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5FF6674B-7B29-4F88-980E-237BF24998A6}" name="SIGLA" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F994B5E7-0CA6-4434-B3C1-B530B71C3891}" name="RESOL." dataDxfId="4" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{E53996BD-FAB0-4BF0-AFD9-AC57BFF07B73}" name="TELF. FIJO" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7E04F7FA-FA89-493B-9BBC-E76938A728F9}" name="CORREO INSTITUCIONAL" dataDxfId="2" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="7" xr3:uid="{06FF81F4-4195-42AA-9803-B449BE533F9A}" name="CORREOS GENERAL"/>
+    <tableColumn id="8" xr3:uid="{8016C869-47DA-4F5A-8BDB-642AAEE86012}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1331,475 +1252,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DEF4F0-DA9B-4352-B33B-C82285C13253}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD53C2-6466-4F7D-ABB6-AED445A95407}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="56.25">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.75">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" ht="56.25">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="67.5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="78.75">
+      <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="56.25">
+      <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>4547531</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="56.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="67.5">
+      <c r="A8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:8" ht="67.5">
+      <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:8" ht="67.5">
+      <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:8" ht="78.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="56.25">
+      <c r="A12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="B12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="22">
-        <v>1019</v>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1078</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="78.75">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1108</v>
+    <row r="13" spans="1:8" ht="78.75">
+      <c r="A13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1093</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45">
-      <c r="A13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1078</v>
+    <row r="14" spans="1:8" ht="56.25">
+      <c r="A14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="67.5">
-      <c r="A14" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+    <row r="15" spans="1:8" ht="33.75">
+      <c r="A15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1093</v>
+      <c r="E15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45">
-      <c r="A15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33.75">
-      <c r="A16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="14" t="s">
+    <row r="16" spans="1:8" ht="78.75">
+      <c r="A16" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45">
-      <c r="A17" s="23" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="G16" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="29">
+      <c r="H16" s="29">
         <v>1018</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="mailto:obu@unac.edu.pe" xr:uid="{1B2C37A6-48BF-440E-B294-484752D9B8AA}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{32F27BA2-9AD6-4F40-A5CC-9F17916478AF}"/>
-    <hyperlink ref="G5" r:id="rId3" display="mailto:obu.uss@unac.edu.pe" xr:uid="{344C0411-0F16-4B3D-9E1B-1857533C9613}"/>
-    <hyperlink ref="G6" r:id="rId4" display="mailto:obu.ucru@unac.edu.pe" xr:uid="{1289776C-677B-4FB2-87BB-7B8F12C2730F}"/>
-    <hyperlink ref="G7" r:id="rId5" display="mailto:obu.ucs@unac.edu.pe" xr:uid="{D154D7EC-0874-45BC-BFEC-A7A8B8E0C6A1}"/>
-    <hyperlink ref="G8" r:id="rId6" display="mailto:obu.urcd@unac.edu.pe" xr:uid="{19AB4FB5-89D5-4481-BC16-DDCBB9C1B570}"/>
-    <hyperlink ref="G11" r:id="rId7" display="mailto:oed@unac.edu.pe" xr:uid="{6A15CDFF-B028-4BFD-BB69-BD7D1B19C405}"/>
-    <hyperlink ref="G12" r:id="rId8" display="mailto:osa@unac.edu.pe" xr:uid="{6D27A8BD-5724-436D-B2F7-BBE61302F1A3}"/>
-    <hyperlink ref="G14" r:id="rId9" xr:uid="{0EB1C88F-1C06-42D3-9D36-21B14A0839F2}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{FDE4F282-A4D5-4184-90E8-5E95AF142C8D}"/>
-    <hyperlink ref="G17" r:id="rId11" xr:uid="{8CADE1DF-7C9C-4695-A8DE-8A201352BCDC}"/>
-    <hyperlink ref="F2" r:id="rId12" xr:uid="{26955379-93DD-49ED-AAF7-98BCC051433F}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{F60A666D-A0AA-46D8-A567-F8D94483AFC9}"/>
-    <hyperlink ref="F4" r:id="rId14" xr:uid="{2DF7E5A2-6657-4552-8192-279B80FED703}"/>
-    <hyperlink ref="F5" r:id="rId15" xr:uid="{646E9CE9-40F2-4494-8D40-4A8476A5614D}"/>
-    <hyperlink ref="F6" r:id="rId16" xr:uid="{038A6675-7D9F-4652-AC23-9A6BD0154FCD}"/>
-    <hyperlink ref="F7" r:id="rId17" xr:uid="{3791E1A2-753F-4B96-9E19-DA3E23D5A09F}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{C60978F3-AA96-4EB2-A7A9-756B6921B380}"/>
-    <hyperlink ref="F10" r:id="rId19" xr:uid="{70B67784-2C37-4633-A8C2-372D9D26060C}"/>
-    <hyperlink ref="F11" r:id="rId20" xr:uid="{8316CA04-59AF-4452-AA67-960C7C93F86D}"/>
-    <hyperlink ref="F13" r:id="rId21" xr:uid="{FC81717D-7A49-43C1-B0EA-003BCFCFDFAE}"/>
-    <hyperlink ref="F14" r:id="rId22" xr:uid="{988A098E-D52F-4FC7-BDED-5568C935A332}"/>
-    <hyperlink ref="F15" r:id="rId23" xr:uid="{B231C75D-8A34-4158-9A98-A136F5EE7327}"/>
-    <hyperlink ref="F16" r:id="rId24" xr:uid="{9CD13EE7-6DC5-48EE-9248-327193C334F0}"/>
-    <hyperlink ref="F17" r:id="rId25" xr:uid="{4D5C4C4A-3BCC-490A-9D03-4110053F7713}"/>
-    <hyperlink ref="G15" r:id="rId26" display="mailto:cepre@unac.edu.pe" xr:uid="{332C6D51-DE33-4D78-A594-446F5EE9FA7F}"/>
-    <hyperlink ref="G13" r:id="rId27" xr:uid="{37F259EE-39C9-43D7-AD4D-0E8DCD415264}"/>
-    <hyperlink ref="D2" r:id="rId28" xr:uid="{2CC98553-59D6-4761-8430-006E3116D5D6}"/>
-    <hyperlink ref="D3" r:id="rId29" xr:uid="{D2048013-B5E8-4EBD-8DC0-29F15B7899C7}"/>
-    <hyperlink ref="D5" r:id="rId30" xr:uid="{5DE7AEAF-5CA9-4F27-97A9-73A3A6BD677C}"/>
-    <hyperlink ref="D6" r:id="rId31" xr:uid="{4DF82830-1A43-4D37-A412-2760A89E3FBE}"/>
-    <hyperlink ref="D7" r:id="rId32" xr:uid="{E467D6B2-C98F-4FF9-968B-D85AD117FAC5}"/>
-    <hyperlink ref="D8" r:id="rId33" xr:uid="{DB9F1669-6961-4B57-BF87-86E91021B21B}"/>
-    <hyperlink ref="D10" r:id="rId34" xr:uid="{8AAA7B8E-B873-4DA5-BC25-66C04067A384}"/>
-    <hyperlink ref="D11" r:id="rId35" xr:uid="{E3738E88-D799-484F-971F-A0D9384D5FE3}"/>
-    <hyperlink ref="D13" r:id="rId36" xr:uid="{A86A56BA-4813-4CEF-B053-82C86285D604}"/>
-    <hyperlink ref="D15" r:id="rId37" display="090-2022-R" xr:uid="{97100CBC-111D-4785-9399-1FD96B572DD0}"/>
-    <hyperlink ref="D17" r:id="rId38" xr:uid="{B0E354E4-2447-445B-B856-671521D3C6C9}"/>
-    <hyperlink ref="G2" r:id="rId39" xr:uid="{BD4239A7-7D32-4ECB-ABE2-C2CF68A13C8B}"/>
+    <hyperlink ref="G4" r:id="rId1" display="mailto:obu@unac.edu.pe" xr:uid="{D5F4B26D-5047-4E7C-A291-85B6E27F3635}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{B7C08B75-A101-42FC-90DA-C1ECDD5AD03C}"/>
+    <hyperlink ref="G5" r:id="rId3" display="mailto:obu.uss@unac.edu.pe" xr:uid="{56384354-7485-466F-B30C-FE8B1988E658}"/>
+    <hyperlink ref="G6" r:id="rId4" display="mailto:obu.ucru@unac.edu.pe" xr:uid="{7DE1A311-F9DC-4172-97B9-67B1BFE76243}"/>
+    <hyperlink ref="G7" r:id="rId5" display="mailto:obu.ucs@unac.edu.pe" xr:uid="{CA16A63E-3566-4621-AC4B-4D81C0D69E7B}"/>
+    <hyperlink ref="G8" r:id="rId6" display="mailto:obu.urcd@unac.edu.pe" xr:uid="{9D05D887-B1E3-4E10-9959-43A4F0826A06}"/>
+    <hyperlink ref="G11" r:id="rId7" display="mailto:osa@unac.edu.pe" xr:uid="{7203BAE4-535F-41CD-ACAA-C92FA0D447BD}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{E49F3CD7-8546-4B1C-AA91-BD8D5A803DAA}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{28030C07-F95A-419D-81E9-A2741FE496DC}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{B34FD42A-6856-4D68-9B50-9F94DB9AB6B6}"/>
+    <hyperlink ref="F2" r:id="rId11" xr:uid="{6C0D3750-9E9C-4893-A3EC-B3928D0CDAE3}"/>
+    <hyperlink ref="F3" r:id="rId12" xr:uid="{7D786FA6-7652-40E0-B110-154B10E414EB}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{F2BC5BFF-B039-412C-B815-65E6B8F791B1}"/>
+    <hyperlink ref="F5" r:id="rId14" xr:uid="{2F4B6273-026C-49BF-8F59-AFA426842483}"/>
+    <hyperlink ref="F6" r:id="rId15" xr:uid="{93C6505A-2FE0-4255-AAA0-A0050328A9AC}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{6744EDF7-F4FA-4928-A58C-62648B7B0E6F}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{9D2560E4-6499-430C-B6F3-C10239EF0499}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{242F0F81-D859-45C2-B83B-461874B3F61E}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{16C48801-E520-4E11-886F-237B6D1255B5}"/>
+    <hyperlink ref="F13" r:id="rId20" xr:uid="{E2ECBE26-EBD7-4F25-B090-5407060923CB}"/>
+    <hyperlink ref="F14" r:id="rId21" xr:uid="{68976520-4BF2-4B7D-8A11-271FABCDF1EF}"/>
+    <hyperlink ref="F15" r:id="rId22" xr:uid="{514DCE4F-5BA7-4255-AA2F-3DE7B374E27D}"/>
+    <hyperlink ref="F16" r:id="rId23" xr:uid="{9EE600DF-468D-43EF-B8A5-B58D719175EF}"/>
+    <hyperlink ref="G14" r:id="rId24" display="mailto:cepre@unac.edu.pe" xr:uid="{A4E9E488-F7ED-4F97-8F2D-60E3BA7A8D9B}"/>
+    <hyperlink ref="G12" r:id="rId25" xr:uid="{F5EBF815-43F9-4C5D-BF29-5F6C03C129DF}"/>
+    <hyperlink ref="D2" r:id="rId26" xr:uid="{B9E25D74-3D9C-4B72-93D2-7A94D4011422}"/>
+    <hyperlink ref="D3" r:id="rId27" xr:uid="{7106DCB7-6F79-4414-B377-DD0C867BAEFE}"/>
+    <hyperlink ref="D5" r:id="rId28" xr:uid="{3DD09B22-9F0F-4386-9BD5-0F25FB6C789B}"/>
+    <hyperlink ref="D6" r:id="rId29" xr:uid="{56F2467C-6632-4953-BA05-4A485945E930}"/>
+    <hyperlink ref="D7" r:id="rId30" xr:uid="{9B1077BF-30DB-4CB1-9E02-696112D80818}"/>
+    <hyperlink ref="D8" r:id="rId31" xr:uid="{9A47F0B7-5C51-4A22-8FC3-0456F18DA1CC}"/>
+    <hyperlink ref="D10" r:id="rId32" xr:uid="{6DDF5EB9-63C0-4AB6-B41D-15A1EEC0844C}"/>
+    <hyperlink ref="D12" r:id="rId33" xr:uid="{7AAC323B-1682-46D5-830B-99579AE569CE}"/>
+    <hyperlink ref="D14" r:id="rId34" display="090-2022-R" xr:uid="{6A4C763E-E2E4-47E6-A1E4-B0EF926CCA0E}"/>
+    <hyperlink ref="D16" r:id="rId35" xr:uid="{4E6590EF-E8A1-414A-BB18-457F2060F57E}"/>
+    <hyperlink ref="G2" r:id="rId36" xr:uid="{BD73A2CD-341E-463B-A9DF-52622CD46C2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>